--- a/biology/Médecine/Francis_Milman_(1er_baronnet)/Francis_Milman_(1er_baronnet).xlsx
+++ b/biology/Médecine/Francis_Milman_(1er_baronnet)/Francis_Milman_(1er_baronnet).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sir Francis Milman, 1er baronnet (31 août 1746 - 24 juin 1821) est un médecin anglais.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Francis Milman, recteur d'East Ogwell, dans le Devon, et fait ses études à Collège d'Exeter à Oxford, où il obtient un BA en 1764, une MA en 1767, un MB en 1770 et un MD en 1776. En 1765, il obtient une bourse universitaire et en 1771, une bourse de voyage Radcliffe.
 Il est nommé médecin à l'hôpital Middlesex (1777-1779) et membre du College of Physicians de Londres en 1778. Il ouvre un cabinet à Londres et, en 1785, est nommé médecin extraordinaire de la Maison du roi, devenant un médecin ordinaire du roi en 1806.
